--- a/Sized_network_result_1.xlsx
+++ b/Sized_network_result_1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="365">
   <si>
     <t>name</t>
   </si>
@@ -1018,22 +1018,10 @@
  [14.     0.975]]</t>
   </si>
   <si>
-    <t>[[ 2.     0.93 ]
- [ 6.     0.96 ]
- [12.     0.975]
- [20.     0.975]]</t>
-  </si>
-  <si>
     <t>[[ 2.4    0.93 ]
  [ 7.2    0.96 ]
  [14.4    0.975]
  [24.     0.975]]</t>
-  </si>
-  <si>
-    <t>[[0.9   0.93 ]
- [2.7   0.96 ]
- [5.4   0.975]
- [9.    0.975]]</t>
   </si>
   <si>
     <t>[[ 3.6    0.93 ]
@@ -1053,6 +1041,14 @@
  [0.975 1.   ]]</t>
   </si>
   <si>
+    <t>[[ 1.2    1.   ]
+ [ 1.005  0.   ]
+ [ 1.     0.   ]
+ [ 1.     0.   ]
+ [ 0.995  0.   ]
+ [ 0.8   -1.   ]]</t>
+  </si>
+  <si>
     <t>[[1.025 1.   ]
  [1.    1.   ]
  [1.    1.   ]
@@ -1079,6 +1075,13 @@
  [1.    1.   ]
  [0.978 1.   ]
  [0.945 0.   ]]</t>
+  </si>
+  <si>
+    <t>[[1.025 1.   ]
+ [1.    1.   ]
+ [1.    1.   ]
+ [0.976 1.   ]
+ [0.941 0.   ]]</t>
   </si>
   <si>
     <t xml:space="preserve">  Unnamed: 0                Converter type Ecosystem  Stand-by losses (W)  \
@@ -3071,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.05089444503821625</v>
+        <v>-0.04983588281538219</v>
       </c>
       <c r="E3">
-        <v>-6.990930362133913E-24</v>
+        <v>-6.833997557465429E-24</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3082,10 +3085,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9880553853481774</v>
+        <v>0.9686745879807602</v>
       </c>
       <c r="C4">
-        <v>-5.927895320852412E-21</v>
+        <v>-5.761681987138804E-21</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3099,10 +3102,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.9879052015585743</v>
+        <v>0.9683500300167508</v>
       </c>
       <c r="C5">
-        <v>-6.047687920756453E-21</v>
+        <v>-5.824010430348121E-21</v>
       </c>
       <c r="D5">
         <v>0.0005</v>
@@ -3116,10 +3119,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.9844416258030972</v>
+        <v>0.950158438420356</v>
       </c>
       <c r="C6">
-        <v>-7.073011378920856E-21</v>
+        <v>-6.366767606020553E-21</v>
       </c>
       <c r="D6">
         <v>0.009525641025641027</v>
@@ -3133,10 +3136,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.9844416258030972</v>
+        <v>0.950158438420356</v>
       </c>
       <c r="C7">
-        <v>-7.073011378920846E-21</v>
+        <v>-6.366767606020553E-21</v>
       </c>
       <c r="D7">
         <v>0.009525641025641027</v>
@@ -3150,13 +3153,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.9881219308826764</v>
+        <v>0.9697379196707164</v>
       </c>
       <c r="C8">
-        <v>-5.926823412241492E-21</v>
+        <v>-4.896556569288369E-21</v>
       </c>
       <c r="D8">
-        <v>-0.000895</v>
+        <v>-0.0139</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3167,13 +3170,13 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>0.9842925727570977</v>
+        <v>0.9519993561054363</v>
       </c>
       <c r="C9">
-        <v>-8.929265205232496E-21</v>
+        <v>-7.901198694365645E-21</v>
       </c>
       <c r="D9">
-        <v>0.02496309708635575</v>
+        <v>0.03374688464909114</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3184,13 +3187,13 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0.9847652611655224</v>
+        <v>0.9536142041871837</v>
       </c>
       <c r="C10">
-        <v>-6.005768436120348E-21</v>
+        <v>-6.25383731441024E-21</v>
       </c>
       <c r="D10">
-        <v>0.00648</v>
+        <v>0.007775999999999998</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3286,13 +3289,13 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.9852390276766161</v>
+        <v>0.9893162169720985</v>
       </c>
       <c r="C16">
-        <v>-1.834580077308999E-21</v>
+        <v>-1.700376879811858E-22</v>
       </c>
       <c r="D16">
-        <v>0.00386448598130841</v>
+        <v>0.007193227091633468</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3309,10 +3312,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>-0.02385151965919686</v>
+        <v>-0.03241571253286386</v>
       </c>
       <c r="E17">
-        <v>-2.014920219360653E-24</v>
+        <v>-1.333891380088726E-24</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3320,10 +3323,10 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>0.9868404311909372</v>
+        <v>0.9732554788902196</v>
       </c>
       <c r="C18">
-        <v>-6.556415243229113E-21</v>
+        <v>-3.323965693502719E-21</v>
       </c>
       <c r="D18">
         <v>0.01383333333333334</v>
@@ -3337,13 +3340,13 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>0.9851372175826294</v>
+        <v>0.9669382768220602</v>
       </c>
       <c r="C19">
-        <v>-2.764852936158184E-21</v>
+        <v>-2.556406479909552E-21</v>
       </c>
       <c r="D19">
-        <v>0.005823475046210724</v>
+        <v>0.01056993006993007</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3445,31 +3448,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.05089444503820051</v>
+        <v>0.04983588275788153</v>
       </c>
       <c r="C2">
-        <v>6.990930362035226E-24</v>
+        <v>6.833997454873712E-24</v>
       </c>
       <c r="D2">
-        <v>-0.05028653050430084</v>
+        <v>-0.04827475319714836</v>
       </c>
       <c r="E2">
-        <v>-1.704717023777239E-24</v>
+        <v>-1.765394984960814E-24</v>
       </c>
       <c r="F2">
-        <v>0.0006079145338996686</v>
+        <v>0.00156112956073317</v>
       </c>
       <c r="G2">
-        <v>5.286213338257988E-24</v>
+        <v>5.068602469912897E-24</v>
       </c>
       <c r="H2">
-        <v>0.0419770307758024</v>
+        <v>0.04110394332223648</v>
       </c>
       <c r="I2">
-        <v>0.0419770307758024</v>
+        <v>0.04110394332223648</v>
       </c>
       <c r="J2">
-        <v>0.0419770307758024</v>
+        <v>0.04110394332223648</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -3478,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9880553853481774</v>
+        <v>0.9686745879807602</v>
       </c>
       <c r="N2">
-        <v>-5.927895320852412E-21</v>
+        <v>-5.761681987138804E-21</v>
       </c>
       <c r="O2">
-        <v>38.04491499404319</v>
+        <v>60.96700045600721</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3492,46 +3495,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0005000760112351409</v>
+        <v>0.0005001675828269701</v>
       </c>
       <c r="C3">
-        <v>1.045546561947586E-27</v>
+        <v>5.441005043315564E-28</v>
       </c>
       <c r="D3">
-        <v>-0.0004999999999997682</v>
+        <v>-0.0004999999998487851</v>
       </c>
       <c r="E3">
-        <v>4.388669128709143E-36</v>
+        <v>7.419062570649047E-35</v>
       </c>
       <c r="F3">
-        <v>7.601123537266229E-08</v>
+        <v>1.675829781849596E-07</v>
       </c>
       <c r="G3">
-        <v>1.045546566336255E-27</v>
+        <v>5.441005785221822E-28</v>
       </c>
       <c r="H3">
-        <v>0.0004174419253693126</v>
+        <v>0.0004258718815646732</v>
       </c>
       <c r="I3">
-        <v>0.0004174419253693126</v>
+        <v>0.0004258718815646732</v>
       </c>
       <c r="J3">
-        <v>0.0004174419253693126</v>
+        <v>0.0004258718815646732</v>
       </c>
       <c r="K3">
-        <v>0.9880553853481774</v>
+        <v>0.9686745879807602</v>
       </c>
       <c r="L3">
-        <v>-5.927895320852412E-21</v>
+        <v>-5.761681987138804E-21</v>
       </c>
       <c r="M3">
-        <v>0.9879052015585743</v>
+        <v>0.9683500300167508</v>
       </c>
       <c r="N3">
-        <v>-6.047687920756453E-21</v>
+        <v>-5.824010430348121E-21</v>
       </c>
       <c r="O3">
-        <v>0.3008148366018777</v>
+        <v>0.6316700807513026</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3539,46 +3542,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.009560608437902901</v>
+        <v>0.009711271312423447</v>
       </c>
       <c r="C4">
-        <v>1.910787555332509E-25</v>
+        <v>1.025581725144126E-25</v>
       </c>
       <c r="D4">
-        <v>-0.009525641025638789</v>
+        <v>-0.009525641014825439</v>
       </c>
       <c r="E4">
-        <v>8.346377232822873E-36</v>
+        <v>2.954100322904935E-33</v>
       </c>
       <c r="F4">
-        <v>3.496741226411207E-05</v>
+        <v>0.0001856302975980079</v>
       </c>
       <c r="G4">
-        <v>1.910787555415973E-25</v>
+        <v>1.025581754685129E-25</v>
       </c>
       <c r="H4">
-        <v>0.007980784329492013</v>
+        <v>0.008268743373633527</v>
       </c>
       <c r="I4">
-        <v>0.007980784329492013</v>
+        <v>0.008268743373633527</v>
       </c>
       <c r="J4">
-        <v>0.007980784329492013</v>
+        <v>0.008268743373633527</v>
       </c>
       <c r="K4">
-        <v>0.9880553853481774</v>
+        <v>0.9686745879807602</v>
       </c>
       <c r="L4">
-        <v>-5.927895320852412E-21</v>
+        <v>-5.761681987138804E-21</v>
       </c>
       <c r="M4">
-        <v>0.9844416258030972</v>
+        <v>0.950158438420356</v>
       </c>
       <c r="N4">
-        <v>-7.073011378920856E-21</v>
+        <v>-6.366767606020553E-21</v>
       </c>
       <c r="O4">
-        <v>9.124458531111916</v>
+        <v>29.7313605152161</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -3586,46 +3589,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.009560608437902901</v>
+        <v>0.009711271312423447</v>
       </c>
       <c r="C5">
-        <v>1.910787555332509E-25</v>
+        <v>1.025581725144126E-25</v>
       </c>
       <c r="D5">
-        <v>-0.009525641025638789</v>
+        <v>-0.009525641014825439</v>
       </c>
       <c r="E5">
-        <v>8.344540522899713E-36</v>
+        <v>2.954100322904935E-33</v>
       </c>
       <c r="F5">
-        <v>3.496741226411207E-05</v>
+        <v>0.0001856302975980079</v>
       </c>
       <c r="G5">
-        <v>1.910787555415955E-25</v>
+        <v>1.025581754685129E-25</v>
       </c>
       <c r="H5">
-        <v>0.007980784329492013</v>
+        <v>0.008268743373633527</v>
       </c>
       <c r="I5">
-        <v>0.007980784329492013</v>
+        <v>0.008268743373633527</v>
       </c>
       <c r="J5">
-        <v>0.007980784329492013</v>
+        <v>0.008268743373633527</v>
       </c>
       <c r="K5">
-        <v>0.9880553853481774</v>
+        <v>0.9686745879807602</v>
       </c>
       <c r="L5">
-        <v>-5.927895320852412E-21</v>
+        <v>-5.761681987138804E-21</v>
       </c>
       <c r="M5">
-        <v>0.9844416258030972</v>
+        <v>0.950158438420356</v>
       </c>
       <c r="N5">
-        <v>-7.073011378920846E-21</v>
+        <v>-6.366767606020553E-21</v>
       </c>
       <c r="O5">
-        <v>9.124458531111916</v>
+        <v>29.7313605152161</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -3633,46 +3636,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.0008949397258054505</v>
+        <v>-0.01388475844459495</v>
       </c>
       <c r="C6">
-        <v>1.674283111308233E-29</v>
+        <v>2.096499584418539E-25</v>
       </c>
       <c r="D6">
-        <v>0.0008949999999998746</v>
+        <v>0.01389999999613839</v>
       </c>
       <c r="E6">
-        <v>6.713863535370342E-37</v>
+        <v>-5.987438148604909E-33</v>
       </c>
       <c r="F6">
-        <v>6.027419442407918E-08</v>
+        <v>1.524155154343509E-05</v>
       </c>
       <c r="G6">
-        <v>1.674283178446869E-29</v>
+        <v>2.096499524544158E-25</v>
       </c>
       <c r="H6">
-        <v>0.0007470571549852815</v>
+        <v>0.01182229398084811</v>
       </c>
       <c r="I6">
-        <v>0.0007470571549852815</v>
+        <v>0.01182229398084811</v>
       </c>
       <c r="J6">
-        <v>0.0007470571549852815</v>
+        <v>0.01182229398084811</v>
       </c>
       <c r="K6">
-        <v>0.9880553853481774</v>
+        <v>0.9686745879807602</v>
       </c>
       <c r="L6">
-        <v>-5.927895320852412E-21</v>
+        <v>-5.761681987138804E-21</v>
       </c>
       <c r="M6">
-        <v>0.9881219308826764</v>
+        <v>0.9697379196707164</v>
       </c>
       <c r="N6">
-        <v>-5.926823412241492E-21</v>
+        <v>-4.896556569288369E-21</v>
       </c>
       <c r="O6">
-        <v>3.788271198367148</v>
+        <v>8.519320211935817</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -3680,46 +3683,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.02505852750879477</v>
+        <v>0.03433799544248763</v>
       </c>
       <c r="C7">
-        <v>1.312660556278535E-24</v>
+        <v>1.282236032198305E-24</v>
       </c>
       <c r="D7">
-        <v>-0.02496309708634858</v>
+        <v>-0.0337468846161668</v>
       </c>
       <c r="E7">
-        <v>6.5228916211098E-35</v>
+        <v>3.357356378285207E-32</v>
       </c>
       <c r="F7">
-        <v>9.543042244618966E-05</v>
+        <v>0.0005911108263208301</v>
       </c>
       <c r="G7">
-        <v>1.312660556343764E-24</v>
+        <v>1.282236065771869E-24</v>
       </c>
       <c r="H7">
-        <v>0.02091777996779883</v>
+        <v>0.02923737409289542</v>
       </c>
       <c r="I7">
-        <v>0.02091777996779884</v>
+        <v>0.02923737409289542</v>
       </c>
       <c r="J7">
-        <v>0.02091777996779884</v>
+        <v>0.02923737409289542</v>
       </c>
       <c r="K7">
-        <v>0.9880553853481774</v>
+        <v>0.9686745879807602</v>
       </c>
       <c r="L7">
-        <v>-5.927895320852412E-21</v>
+        <v>-5.761681987138804E-21</v>
       </c>
       <c r="M7">
-        <v>0.9842925727570977</v>
+        <v>0.9519993561054363</v>
       </c>
       <c r="N7">
-        <v>-8.929265205232496E-21</v>
+        <v>-7.901198694365645E-21</v>
       </c>
       <c r="O7">
-        <v>15.07366218072261</v>
+        <v>53.05481560302161</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -3727,46 +3730,46 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.006501649834272992</v>
+        <v>0.007898805991576455</v>
       </c>
       <c r="C8">
-        <v>8.83666705022807E-27</v>
+        <v>6.784861616541874E-26</v>
       </c>
       <c r="D8">
-        <v>-0.00647999999999841</v>
+        <v>-0.007775999993339091</v>
       </c>
       <c r="E8">
-        <v>6.211752960126526E-37</v>
+        <v>1.645279015089484E-33</v>
       </c>
       <c r="F8">
-        <v>2.164983427458203E-05</v>
+        <v>0.0001228059982373636</v>
       </c>
       <c r="G8">
-        <v>8.836667050849245E-27</v>
+        <v>6.784861781069776E-26</v>
       </c>
       <c r="H8">
-        <v>0.005427297378637526</v>
+        <v>0.006725504581352871</v>
       </c>
       <c r="I8">
-        <v>0.005427297378637526</v>
+        <v>0.006725504581352871</v>
       </c>
       <c r="J8">
-        <v>0.005427297378637526</v>
+        <v>0.006725504581352871</v>
       </c>
       <c r="K8">
-        <v>0.9880553853481774</v>
+        <v>0.9686745879807602</v>
       </c>
       <c r="L8">
-        <v>-5.927895320852412E-21</v>
+        <v>-5.761681987138804E-21</v>
       </c>
       <c r="M8">
-        <v>0.9847652611655224</v>
+        <v>0.9536142041871837</v>
       </c>
       <c r="N8">
-        <v>-6.005768436120348E-21</v>
+        <v>-6.25383731441024E-21</v>
       </c>
       <c r="O8">
-        <v>22.70401384409596</v>
+        <v>24.18244131176515</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -3774,37 +3777,37 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>-0.01383333333333245</v>
+        <v>-0.01383333333317851</v>
       </c>
       <c r="C9">
-        <v>8.046993515347822E-36</v>
+        <v>3.093268384795732E-34</v>
       </c>
       <c r="D9">
-        <v>0.01401780155747989</v>
+        <v>0.01421346566571846</v>
       </c>
       <c r="E9">
-        <v>1.604071514317556E-24</v>
+        <v>8.245820659378472E-25</v>
       </c>
       <c r="F9">
-        <v>0.0001844682241474438</v>
+        <v>0.000380132332539947</v>
       </c>
       <c r="G9">
-        <v>1.604071514325603E-24</v>
+        <v>8.245820662471741E-25</v>
       </c>
       <c r="H9">
-        <v>0.02312337572187935</v>
+        <v>0.02344613779491445</v>
       </c>
       <c r="I9">
-        <v>0.02312337572187935</v>
+        <v>0.02344613779491445</v>
       </c>
       <c r="J9">
-        <v>0.02312337572187935</v>
+        <v>0.02344613779491445</v>
       </c>
       <c r="K9">
-        <v>0.9868404311909372</v>
+        <v>0.9732554788902196</v>
       </c>
       <c r="L9">
-        <v>-6.556415243229113E-21</v>
+        <v>-3.323965693502719E-21</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -3813,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.95733898885814</v>
+        <v>42.54590420329481</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -3821,37 +3824,37 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>-0.005823475046209757</v>
+        <v>-0.01056993006939143</v>
       </c>
       <c r="C10">
-        <v>3.09912657109565E-36</v>
+        <v>6.564172594987778E-34</v>
       </c>
       <c r="D10">
-        <v>0.005911333915999684</v>
+        <v>0.01093133897246323</v>
       </c>
       <c r="E10">
-        <v>2.852560707434152E-25</v>
+        <v>4.87731312530904E-25</v>
       </c>
       <c r="F10">
-        <v>8.78588697899264E-05</v>
+        <v>0.0003614089030718037</v>
       </c>
       <c r="G10">
-        <v>2.852560707465144E-25</v>
+        <v>4.877313131873213E-25</v>
       </c>
       <c r="H10">
-        <v>0.009751172079063378</v>
+        <v>0.01803203285244199</v>
       </c>
       <c r="I10">
-        <v>0.009751172079063378</v>
+        <v>0.01803203285244199</v>
       </c>
       <c r="J10">
-        <v>0.009751172079063378</v>
+        <v>0.01803203285244199</v>
       </c>
       <c r="K10">
-        <v>0.9851372175826294</v>
+        <v>0.9669382768220602</v>
       </c>
       <c r="L10">
-        <v>-2.764852936158184E-21</v>
+        <v>-2.556406479909552E-21</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -3860,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.46332552403186</v>
+        <v>41.48487406913999</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -3868,37 +3871,37 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>-0.003864485981307818</v>
+        <v>-0.007193227091633313</v>
       </c>
       <c r="C11">
-        <v>1.371838641608073E-36</v>
+        <v>5.605409096743389E-38</v>
       </c>
       <c r="D11">
-        <v>0.003922384185714833</v>
+        <v>0.007270907893988543</v>
       </c>
       <c r="E11">
-        <v>1.255926342871641E-25</v>
+        <v>2.157800065417433E-26</v>
       </c>
       <c r="F11">
-        <v>5.789820440701542E-05</v>
+        <v>7.768080235523011E-05</v>
       </c>
       <c r="G11">
-        <v>1.255926342885359E-25</v>
+        <v>2.157800065423039E-26</v>
       </c>
       <c r="H11">
-        <v>0.006470255901393115</v>
+        <v>0.01199388751384932</v>
       </c>
       <c r="I11">
-        <v>0.006470255901393115</v>
+        <v>0.01199388751384932</v>
       </c>
       <c r="J11">
-        <v>0.006470255901393115</v>
+        <v>0.01199388751384932</v>
       </c>
       <c r="K11">
-        <v>0.9852390276766161</v>
+        <v>0.9893162169720985</v>
       </c>
       <c r="L11">
-        <v>-1.834580077308999E-21</v>
+        <v>-1.700376879811858E-22</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -3907,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.74107608508486</v>
+        <v>60.82011037838987</v>
       </c>
     </row>
   </sheetData>
@@ -3936,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.05329432036819409</v>
+        <v>0.05223154547698421</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3968,7 +3971,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.006480000000000001</v>
+        <v>0.007776000000000002</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3990,7 +3993,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.005184000000000001</v>
+        <v>0.009720000000000001</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4001,7 +4004,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.003240000000000001</v>
+        <v>0.006480000000000001</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4033,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0015</v>
+        <v>0.015</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4167,10 +4170,10 @@
         <v>0.00085</v>
       </c>
       <c r="I2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -4205,6 +4208,9 @@
         <v>0.0005</v>
       </c>
       <c r="I3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J3" t="s">
         <v>324</v>
       </c>
       <c r="K3">
@@ -4240,10 +4246,10 @@
         <v>0.0005</v>
       </c>
       <c r="I4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -4278,10 +4284,10 @@
         <v>0.0005</v>
       </c>
       <c r="I5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -4307,19 +4313,19 @@
         <v>315</v>
       </c>
       <c r="F6">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H6">
         <v>0.0005</v>
       </c>
       <c r="I6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" t="s">
         <v>333</v>
@@ -4345,16 +4351,16 @@
         <v>0.024</v>
       </c>
       <c r="G7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H7">
         <v>0.0005</v>
       </c>
       <c r="I7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -4380,22 +4386,22 @@
         <v>316</v>
       </c>
       <c r="F8">
-        <v>0.008999999999999999</v>
+        <v>0.024</v>
       </c>
       <c r="G8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H8">
         <v>0.0005</v>
       </c>
       <c r="I8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" t="s">
         <v>334</v>
@@ -4418,19 +4424,22 @@
         <v>316</v>
       </c>
       <c r="F9">
-        <v>0.008999999999999999</v>
+        <v>0.014</v>
       </c>
       <c r="G9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H9">
         <v>0.0005</v>
       </c>
       <c r="I9" t="s">
-        <v>324</v>
+        <v>322</v>
+      </c>
+      <c r="J9" t="s">
+        <v>329</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="s">
         <v>334</v>
@@ -4456,13 +4465,13 @@
         <v>0.036</v>
       </c>
       <c r="G10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H10">
         <v>0.0005</v>
       </c>
       <c r="I10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -4500,13 +4509,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.05329432036819409</v>
+        <v>0.05223154547698421</v>
       </c>
       <c r="C2">
-        <v>50.89444503821624</v>
+        <v>49.83588281538218</v>
       </c>
       <c r="D2">
-        <v>-0.002399875329977846</v>
+        <v>-0.002395662661602023</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4556,13 +4565,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.0008950000000000002</v>
+        <v>-0.0139</v>
       </c>
       <c r="C6">
-        <v>-7.5</v>
+        <v>-30</v>
       </c>
       <c r="D6">
-        <v>-0.0006049999999999999</v>
+        <v>-0.0011</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4584,13 +4593,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.005823475046210723</v>
+        <v>0.01056993006993007</v>
       </c>
       <c r="C8">
-        <v>57.60000000000002</v>
+        <v>40.5</v>
       </c>
       <c r="D8">
-        <v>-0.0006394750462107215</v>
+        <v>-0.0008499300699300709</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4598,13 +4607,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.003864485981308412</v>
+        <v>0.007193227091633468</v>
       </c>
       <c r="C9">
-        <v>36.00000000000001</v>
+        <v>46.2857142857143</v>
       </c>
       <c r="D9">
-        <v>-0.0006244859813084114</v>
+        <v>-0.0007132270916334667</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4612,13 +4621,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02496309708635575</v>
+        <v>0.03374688464909114</v>
       </c>
       <c r="C10">
-        <v>66.25422127554683</v>
+        <v>90.04364592462186</v>
       </c>
       <c r="D10">
-        <v>-0.001111577427158894</v>
+        <v>-0.001331172116227276</v>
       </c>
     </row>
   </sheetData>
@@ -6197,7 +6206,7 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>0.006480000000000001</v>
+        <v>0.007776000000000002</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6218,7 +6227,7 @@
         <v>41</v>
       </c>
       <c r="M2">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="N2" t="s">
         <v>43</v>
@@ -6276,7 +6285,7 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>0.005184000000000001</v>
+        <v>0.009720000000000001</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6300,7 +6309,7 @@
         <v>42</v>
       </c>
       <c r="M4">
-        <v>0.008</v>
+        <v>0.015</v>
       </c>
       <c r="N4" t="s">
         <v>43</v>
@@ -6317,7 +6326,7 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>0.003240000000000001</v>
+        <v>0.006480000000000001</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6341,7 +6350,7 @@
         <v>42</v>
       </c>
       <c r="M5">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="N5" t="s">
         <v>43</v>
@@ -6468,7 +6477,7 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>0.0015</v>
+        <v>0.015</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6486,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0.015</v>
+        <v>0.15</v>
       </c>
       <c r="L2" t="s">
         <v>47</v>
@@ -6787,7 +6796,7 @@
         <v>0.1</v>
       </c>
       <c r="G2">
-        <v>1.15</v>
+        <v>3.08</v>
       </c>
       <c r="H2">
         <v>9.999999999999999E-21</v>
@@ -6799,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1103354568734741</v>
+        <v>0.06741998624632421</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -6811,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -6825,10 +6834,10 @@
         <v>4</v>
       </c>
       <c r="F3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G3">
-        <v>0.727</v>
+        <v>3.08</v>
       </c>
       <c r="H3">
         <v>9.999999999999999E-21</v>
@@ -6840,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1387703911432362</v>
+        <v>0.06741998624632421</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -6852,7 +6861,7 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -6866,10 +6875,10 @@
         <v>6</v>
       </c>
       <c r="F4">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G4">
-        <v>1.83</v>
+        <v>18.1</v>
       </c>
       <c r="H4">
         <v>9.999999999999999E-21</v>
@@ -6881,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.08746584032663104</v>
+        <v>0.0278115203285154</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -6893,7 +6902,7 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -6907,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="F5">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G5">
-        <v>1.83</v>
+        <v>18.1</v>
       </c>
       <c r="H5">
         <v>9.999999999999999E-21</v>
@@ -6922,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.08746584032663104</v>
+        <v>0.0278115203285154</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -6934,7 +6943,7 @@
         <v>1</v>
       </c>
       <c r="P5">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -6948,10 +6957,10 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>0.001</v>
+        <v>0.05</v>
       </c>
       <c r="G6">
-        <v>36</v>
+        <v>0.727</v>
       </c>
       <c r="H6">
         <v>9.999999999999999E-21</v>
@@ -6963,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.01972026594366539</v>
+        <v>0.1387703911432362</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -6975,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -6989,10 +6998,10 @@
         <v>18</v>
       </c>
       <c r="F7">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G7">
-        <v>0.727</v>
+        <v>4.61</v>
       </c>
       <c r="H7">
         <v>9.999999999999999E-21</v>
@@ -7004,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1387703911432362</v>
+        <v>0.0551078611066368</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -7016,7 +7025,7 @@
         <v>1</v>
       </c>
       <c r="P7">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -7030,10 +7039,10 @@
         <v>19</v>
       </c>
       <c r="F8">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G8">
-        <v>24.5</v>
+        <v>18.1</v>
       </c>
       <c r="H8">
         <v>9.999999999999999E-21</v>
@@ -7045,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.02390457218668787</v>
+        <v>0.0278115203285154</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -7057,7 +7066,7 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -7071,10 +7080,10 @@
         <v>17</v>
       </c>
       <c r="F9">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G9">
-        <v>1.15</v>
+        <v>4.61</v>
       </c>
       <c r="H9">
         <v>9.999999999999999E-21</v>
@@ -7086,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.1103354568734741</v>
+        <v>0.0551078611066368</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -7098,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="P9">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -7112,10 +7121,10 @@
         <v>17</v>
       </c>
       <c r="F10">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G10">
-        <v>3.08</v>
+        <v>7.41</v>
       </c>
       <c r="H10">
         <v>9.999999999999999E-21</v>
@@ -7127,7 +7136,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.06741998624632421</v>
+        <v>0.04346652426228712</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -7139,7 +7148,7 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -7153,10 +7162,10 @@
         <v>17</v>
       </c>
       <c r="F11">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="G11">
-        <v>4.61</v>
+        <v>36</v>
       </c>
       <c r="H11">
         <v>9.999999999999999E-21</v>
@@ -7168,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.0551078611066368</v>
+        <v>0.01972026594366539</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -7180,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Sized_network_result_1.xlsx
+++ b/Sized_network_result_1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="375">
   <si>
     <t>name</t>
   </si>
@@ -68,48 +68,54 @@
     <t>Bus 8</t>
   </si>
   <si>
+    <t>Bus 11</t>
+  </si>
+  <si>
+    <t>Bus 19</t>
+  </si>
+  <si>
+    <t>Bus 21</t>
+  </si>
+  <si>
+    <t>Bus 3</t>
+  </si>
+  <si>
+    <t>Bus 5</t>
+  </si>
+  <si>
+    <t>Bus 7</t>
+  </si>
+  <si>
+    <t>Bus 9</t>
+  </si>
+  <si>
     <t>Bus 10</t>
   </si>
   <si>
+    <t>Bus 12</t>
+  </si>
+  <si>
+    <t>Bus 17</t>
+  </si>
+  <si>
     <t>Bus 18</t>
   </si>
   <si>
-    <t>Bus 19</t>
-  </si>
-  <si>
-    <t>Bus 3</t>
-  </si>
-  <si>
-    <t>Bus 5</t>
-  </si>
-  <si>
-    <t>Bus 7</t>
-  </si>
-  <si>
-    <t>Bus 9</t>
-  </si>
-  <si>
-    <t>Bus 11</t>
+    <t>Bus 20</t>
+  </si>
+  <si>
+    <t>Bus 13</t>
+  </si>
+  <si>
+    <t>Bus 15</t>
+  </si>
+  <si>
+    <t>Bus 14</t>
   </si>
   <si>
     <t>Bus 16</t>
   </si>
   <si>
-    <t>Bus 17</t>
-  </si>
-  <si>
-    <t>Bus 12</t>
-  </si>
-  <si>
-    <t>Bus 14</t>
-  </si>
-  <si>
-    <t>Bus 13</t>
-  </si>
-  <si>
-    <t>Bus 15</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
@@ -146,16 +152,19 @@
     <t>default_power_profile</t>
   </si>
   <si>
-    <t>load 19</t>
-  </si>
-  <si>
-    <t>load 11</t>
-  </si>
-  <si>
-    <t>load 13</t>
-  </si>
-  <si>
-    <t>load 15</t>
+    <t>load 21</t>
+  </si>
+  <si>
+    <t>load 12</t>
+  </si>
+  <si>
+    <t>load 20</t>
+  </si>
+  <si>
+    <t>load 14</t>
+  </si>
+  <si>
+    <t>load 16</t>
   </si>
   <si>
     <t>wye</t>
@@ -169,25 +178,28 @@
  [0.975 0.   ]]</t>
   </si>
   <si>
+    <t>[0.  0.  0.  0.  0.  0.  0.  0.1 0.2 0.5 0.7 0.8 0.9 1.  0.9 0.8 0.7 0.5
+ 0.2 0.1 0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.1 0.2 0.5 0.7 0.8
+ 0.9 1.  0.9 0.8 0.7 0.5 0.2 0.1 0.  0.  0.  0. ]</t>
+  </si>
+  <si>
+    <t>[0.3 0.3 0.3 0.3 0.3 0.3 0.3 0.3 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9
+ 0.9 0.9 0.9 0.3 0.3 0.3 0.3 0.3 0.3 0.3 0.3 0.3 0.3 0.3 0.9 0.9 0.9 0.9
+ 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.3 0.3 0.3]</t>
+  </si>
+  <si>
     <t>[0.1 0.1 0.1 0.1 0.1 0.1 0.1 0.3 0.5 0.7 0.8 0.8 0.8 0.3 0.3 0.8 0.8 0.8
  0.7 0.6 0.2 0.1 0.1 0.1 0.1 0.1 0.1 0.1 0.1 0.1 0.1 0.3 0.5 0.7 0.8 0.8
  0.8 0.3 0.3 0.8 0.8 0.8 0.7 0.6 0.2 0.1 0.1 0.1]</t>
   </si>
   <si>
-    <t>[0.3 0.3 0.3 0.3 0.3 0.3 0.3 0.3 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9
- 0.9 0.9 0.9 0.3 0.3 0.3 0.3 0.3 0.3 0.3 0.3 0.3 0.3 0.3 0.9 0.9 0.9 0.9
- 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.9 0.3 0.3 0.3]</t>
-  </si>
-  <si>
     <t>current_source</t>
   </si>
   <si>
     <t>PV 9</t>
   </si>
   <si>
-    <t>[0.  0.  0.  0.  0.  0.  0.  0.1 0.2 0.5 0.7 0.8 0.9 1.  0.9 0.8 0.7 0.5
- 0.2 0.1 0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.  0.1 0.2 0.5 0.7 0.8
- 0.9 1.  0.9 0.8 0.7 0.5 0.2 0.1 0.  0.  0.  0. ]</t>
+    <t>PV 10</t>
   </si>
   <si>
     <t>soc_percent</t>
@@ -259,6 +271,9 @@
     <t>cable_rank</t>
   </si>
   <si>
+    <t>section</t>
+  </si>
+  <si>
     <t>q_mm2</t>
   </si>
   <si>
@@ -985,6 +1000,9 @@
     <t>Conv_9</t>
   </si>
   <si>
+    <t>Conv_10</t>
+  </si>
+  <si>
     <t>AC/DC Converter Non-Isolated</t>
   </si>
   <si>
@@ -998,6 +1016,9 @@
   </si>
   <si>
     <t>PDU DC/DC Converter Non-Isolated</t>
+  </si>
+  <si>
+    <t>PDU DC/DC Converter Isolated</t>
   </si>
   <si>
     <t>[[ 10.      0.93 ]
@@ -1006,10 +1027,10 @@
  [100.      0.975]]</t>
   </si>
   <si>
-    <t>[[ 5.     0.93 ]
- [15.     0.96 ]
- [30.     0.975]
- [50.     0.975]]</t>
+    <t>[[ 4.     0.93 ]
+ [12.     0.96 ]
+ [24.     0.975]
+ [40.     0.975]]</t>
   </si>
   <si>
     <t>[[ 1.4    0.93 ]
@@ -1018,16 +1039,22 @@
  [14.     0.975]]</t>
   </si>
   <si>
-    <t>[[ 2.4    0.93 ]
- [ 7.2    0.96 ]
- [14.4    0.975]
- [24.     0.975]]</t>
-  </si>
-  <si>
     <t>[[ 3.6    0.93 ]
  [10.8    0.96 ]
  [21.6    0.975]
  [36.     0.975]]</t>
+  </si>
+  <si>
+    <t>[[0.9   0.93 ]
+ [2.7   0.96 ]
+ [5.4   0.975]
+ [9.    0.975]]</t>
+  </si>
+  <si>
+    <t>[[0.9   0.916]
+ [2.7   0.955]
+ [5.4   0.96 ]
+ [9.    0.965]]</t>
   </si>
   <si>
     <t>[[0,100],[50,98],[75,97],[100,95]]</t>
@@ -1066,6 +1093,14 @@
     <t>[[1.025 1.   ]
  [1.    1.   ]
  [1.    1.   ]
+ [1.    1.   ]
+ [1.    1.   ]
+ [0.975 1.   ]]</t>
+  </si>
+  <si>
+    <t>[[1.025 1.   ]
+ [1.    1.   ]
+ [1.    1.   ]
  [0.98  1.   ]
  [0.95  0.   ]]</t>
   </si>
@@ -1082,6 +1117,14 @@
  [1.    1.   ]
  [0.976 1.   ]
  [0.941 0.   ]]</t>
+  </si>
+  <si>
+    <t>[[1.025 1.   ]
+ [1.    1.   ]
+ [1.    1.   ]
+ [1.    1.   ]
+ [1.    1.   ]
+ [0.975 0.   ]]</t>
   </si>
   <si>
     <t xml:space="preserve">  Unnamed: 0                Converter type Ecosystem  Stand-by losses (W)  \
@@ -1244,26 +1287,26 @@
 3               NaN  </t>
   </si>
   <si>
-    <t xml:space="preserve">  Unnamed: 0                    Converter type Ecosystem  Stand-by losses (W)  \
-0        NaN  PDU DC/DC Converter Non-Isolated      ODCA                  500   
-1        NaN  PDU DC/DC Converter Non-Isolated      ODCA                  500   
-2        NaN  PDU DC/DC Converter Non-Isolated      ODCA                  500   
-3        NaN  PDU DC/DC Converter Non-Isolated      ODCA                  500   
+    <t xml:space="preserve">  Unnamed: 0                Converter type Ecosystem  Stand-by losses (W)  \
+0        NaN  PDU DC/DC Converter Isolated      ODCA                  500   
+1        NaN  PDU DC/DC Converter Isolated      ODCA                  500   
+2        NaN  PDU DC/DC Converter Isolated      ODCA                  500   
+3        NaN  PDU DC/DC Converter Isolated      ODCA                  500   
    Voltage level V1 (V)  Voltage level V2 (V)  Nominal power (kW)  \
 0                   700                   350                   9   
 1                   700                   350                  14   
 2                   700                   350                  24   
 3                   700                   350                  36   
    Efficiency max (%)  \
-0               0.975   
-1               0.975   
-2               0.975   
-3               0.975   
+0             0.96525   
+1             0.96525   
+2             0.96525   
+3             0.96525   
   Efficiency curve [Xi;Yi], i={1,2,3,4}, \nwith X= Factor of Nominal Power (%), Y=Efficiency (%)  \
-0         [10;93], [30; 96], [60; 97.5], [100; 97.5]                                               
-1         [10;93], [30; 96], [60; 97.5], [100; 97.5]                                               
-2         [10;93], [30; 96], [60; 97.5], [100; 97.5]                                               
-3         [10;93], [30; 96], [60; 97.5], [100; 97.5]                                               
+0       [10;91.6], [30; 95.5], [60; 96], [100; 96.5]                                               
+1       [10;91.6], [30; 95.5], [60; 96], [100; 96.5]                                               
+2       [10;91.6], [30; 95.5], [60; 96], [100; 96.5]                                               
+3       [10;91.6], [30; 95.5], [60; 96], [100; 96.5]                                               
    Approximate cost (kEUR)  Product carbon footprint  Weight (kg)  \
 0                      NaN                       NaN          NaN   
 1                      NaN                       NaN          NaN   
@@ -1718,7 +1761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1752,7 +1795,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -1769,7 +1812,7 @@
         <v>0.7</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -1786,7 +1829,7 @@
         <v>0.7</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -1803,7 +1846,7 @@
         <v>0.7</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -1820,7 +1863,7 @@
         <v>0.7</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -1837,7 +1880,7 @@
         <v>0.7</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -1845,7 +1888,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1854,7 +1897,7 @@
         <v>0.7</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -1862,7 +1905,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1871,7 +1914,7 @@
         <v>0.7</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -1879,7 +1922,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1888,7 +1931,7 @@
         <v>0.7</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -1905,7 +1948,7 @@
         <v>0.7</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -1922,7 +1965,7 @@
         <v>0.7</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -1939,7 +1982,7 @@
         <v>0.7</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -1956,7 +1999,7 @@
         <v>0.7</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -1964,16 +2007,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15">
-        <v>0.048</v>
+        <v>0.7</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -1981,16 +2024,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16">
-        <v>0.35</v>
+        <v>0.048</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -2007,7 +2050,7 @@
         <v>0.35</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -2015,7 +2058,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -2024,7 +2067,7 @@
         <v>0.35</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -2032,7 +2075,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -2041,7 +2084,7 @@
         <v>0.35</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -2055,10 +2098,10 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>0.048</v>
+        <v>0.35</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -2072,12 +2115,46 @@
         <v>24</v>
       </c>
       <c r="C21">
+        <v>0.35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
         <v>0.048</v>
       </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" t="b">
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>0.048</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2096,36 +2173,36 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -2134,27 +2211,27 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="I2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -2163,27 +2240,27 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="I3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C4">
         <v>125</v>
@@ -2192,27 +2269,27 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F4" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I4" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C5">
         <v>160</v>
@@ -2221,27 +2298,27 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F5" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="I5" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -2250,27 +2327,27 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F6" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="I6" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C7">
         <v>200</v>
@@ -2279,27 +2356,27 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="I7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -2308,27 +2385,27 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F8" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="I8" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -2337,27 +2414,27 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F9" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="I9" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C10">
         <v>31.5</v>
@@ -2366,27 +2443,27 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F10" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="I10" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C11">
         <v>40</v>
@@ -2395,27 +2472,27 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F11" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="I11" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -2424,27 +2501,27 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F12" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="I12" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C13">
         <v>6.3</v>
@@ -2453,27 +2530,27 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F13" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="I13" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C14">
         <v>63</v>
@@ -2482,27 +2559,27 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F14" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I14" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C15">
         <v>80</v>
@@ -2511,33 +2588,33 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F15" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I15" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C16">
         <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2546,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2557,16 +2634,16 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C17">
         <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2575,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2586,16 +2663,16 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2604,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2615,16 +2692,16 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C19">
         <v>160</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2633,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2644,16 +2721,16 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C20">
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2662,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2673,16 +2750,16 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C21">
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2691,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2702,16 +2779,16 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C22">
         <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2720,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2731,16 +2808,16 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C23">
         <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2749,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2760,16 +2837,16 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C24">
         <v>1000</v>
       </c>
       <c r="D24" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2778,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2789,16 +2866,16 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C25">
         <v>200</v>
       </c>
       <c r="D25" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2807,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2818,16 +2895,16 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C26">
         <v>224</v>
       </c>
       <c r="D26" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2836,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2847,16 +2924,16 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C27">
         <v>250</v>
       </c>
       <c r="D27" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2865,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2876,16 +2953,16 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B28" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C28">
         <v>315</v>
       </c>
       <c r="D28" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2894,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2905,16 +2982,16 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B29" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C29">
         <v>355</v>
       </c>
       <c r="D29" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2923,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2934,16 +3011,16 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B30" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C30">
         <v>400</v>
       </c>
       <c r="D30" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2952,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2963,16 +3040,16 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B31" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C31">
         <v>425</v>
       </c>
       <c r="D31" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2981,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2992,16 +3069,16 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B32" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C32">
         <v>630</v>
       </c>
       <c r="D32" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3010,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3026,7 +3103,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3034,16 +3111,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3074,10 +3151,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.04983588281538219</v>
+        <v>-0.03143613677318741</v>
       </c>
       <c r="E3">
-        <v>-6.833997557465429E-24</v>
+        <v>-7.434588124435476E-25</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3085,10 +3162,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9686745879807602</v>
+        <v>0.9883878760158898</v>
       </c>
       <c r="C4">
-        <v>-5.761681987138804E-21</v>
+        <v>-3.559821365879143E-22</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3102,10 +3179,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.9683500300167508</v>
+        <v>0.9881379728826389</v>
       </c>
       <c r="C5">
-        <v>-5.824010430348121E-21</v>
+        <v>-3.679545458392715E-22</v>
       </c>
       <c r="D5">
         <v>0.0005</v>
@@ -3119,10 +3196,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.950158438420356</v>
+        <v>0.951616606536927</v>
       </c>
       <c r="C6">
-        <v>-6.366767606020553E-21</v>
+        <v>-9.480907051835564E-22</v>
       </c>
       <c r="D6">
         <v>0.009525641025641027</v>
@@ -3136,13 +3213,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.950158438420356</v>
+        <v>0.9522043181081628</v>
       </c>
       <c r="C7">
-        <v>-6.366767606020553E-21</v>
+        <v>-1.514833982282216E-21</v>
       </c>
       <c r="D7">
-        <v>0.009525641025641027</v>
+        <v>0.01865472779369628</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3150,16 +3227,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.9697379196707164</v>
+        <v>0.9927283772789762</v>
       </c>
       <c r="C8">
-        <v>-4.896556569288369E-21</v>
+        <v>1.89818684195536E-22</v>
       </c>
       <c r="D8">
-        <v>-0.0139</v>
+        <v>-0.004580000000000001</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3167,16 +3244,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.9519993561054363</v>
+        <v>0.9852126187776056</v>
       </c>
       <c r="C9">
-        <v>-7.901198694365645E-21</v>
+        <v>-4.071116473120384E-22</v>
       </c>
       <c r="D9">
-        <v>0.03374688464909114</v>
+        <v>0.004257968651508071</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3184,16 +3261,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10">
-        <v>0.9536142041871837</v>
+        <v>0.9871971207154532</v>
       </c>
       <c r="C10">
-        <v>-6.25383731441024E-21</v>
+        <v>-3.751562479541694E-22</v>
       </c>
       <c r="D10">
-        <v>0.007775999999999998</v>
+        <v>0.001600000000000001</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3269,7 +3346,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -3281,21 +3358,21 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>0.9893162169720985</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>-1.700376879811858E-22</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.007193227091633468</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3306,47 +3383,47 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.9986314384318138</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-2.178133390599801E-23</v>
       </c>
       <c r="D17">
-        <v>-0.03241571253286386</v>
+        <v>0.0009301075268817204</v>
       </c>
       <c r="E17">
-        <v>-1.333891380088726E-24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>0.9732554788902196</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>-3.323965693502719E-21</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01383333333333334</v>
+        <v>-0.003595089167806731</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-1.324051989325016E-27</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>0.9669382768220602</v>
+        <v>0.9988231047153258</v>
       </c>
       <c r="C19">
-        <v>-2.556406479909552E-21</v>
+        <v>-1.87308702362448E-23</v>
       </c>
       <c r="D19">
-        <v>0.01056993006993007</v>
+        <v>0.0007999999999999999</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3357,13 +3434,13 @@
         <v>13</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0.9986314384318138</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>-2.178133390599801E-23</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.0009301075268817204</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3374,15 +3451,49 @@
         <v>15</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0.9986314384318138</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>-2.178133390599801E-23</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.0009301075268817204</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>0</v>
       </c>
     </row>
@@ -3393,7 +3504,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3401,46 +3512,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -3448,31 +3559,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.04983588275788153</v>
+        <v>0.03143613675256329</v>
       </c>
       <c r="C2">
-        <v>6.833997454873712E-24</v>
+        <v>7.434588030407435E-25</v>
       </c>
       <c r="D2">
-        <v>-0.04827475319714836</v>
+        <v>-0.03107109643501109</v>
       </c>
       <c r="E2">
-        <v>-1.765394984960814E-24</v>
+        <v>-5.41779069586486E-25</v>
       </c>
       <c r="F2">
-        <v>0.00156112956073317</v>
+        <v>0.0003650403175522073</v>
       </c>
       <c r="G2">
-        <v>5.068602469912897E-24</v>
+        <v>2.016797334542575E-25</v>
       </c>
       <c r="H2">
-        <v>0.04110394332223648</v>
+        <v>0.02592808859482044</v>
       </c>
       <c r="I2">
-        <v>0.04110394332223648</v>
+        <v>0.02592808859482044</v>
       </c>
       <c r="J2">
-        <v>0.04110394332223648</v>
+        <v>0.02592808859482044</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -3481,13 +3592,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9686745879807602</v>
+        <v>0.9883878760158898</v>
       </c>
       <c r="N2">
-        <v>-5.761681987138804E-21</v>
+        <v>-3.559821365879143E-22</v>
       </c>
       <c r="O2">
-        <v>60.96700045600721</v>
+        <v>93.22787207801846</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3495,46 +3606,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0005001675828269701</v>
+        <v>0.0005001264515328457</v>
       </c>
       <c r="C3">
-        <v>5.441005043315564E-28</v>
+        <v>1.045054028143281E-28</v>
       </c>
       <c r="D3">
-        <v>-0.0004999999998487851</v>
+        <v>-0.0004999999999946463</v>
       </c>
       <c r="E3">
-        <v>7.419062570649047E-35</v>
+        <v>6.561603152599648E-37</v>
       </c>
       <c r="F3">
-        <v>1.675829781849596E-07</v>
+        <v>1.264515381993328E-07</v>
       </c>
       <c r="G3">
-        <v>5.441005785221822E-28</v>
+        <v>1.045054034704884E-28</v>
       </c>
       <c r="H3">
-        <v>0.0004258718815646732</v>
+        <v>0.0004173435904033673</v>
       </c>
       <c r="I3">
-        <v>0.0004258718815646732</v>
+        <v>0.0004173435904033672</v>
       </c>
       <c r="J3">
-        <v>0.0004258718815646732</v>
+        <v>0.0004173435904033673</v>
       </c>
       <c r="K3">
-        <v>0.9686745879807602</v>
+        <v>0.9883878760158898</v>
       </c>
       <c r="L3">
-        <v>-5.761681987138804E-21</v>
+        <v>-3.559821365879143E-22</v>
       </c>
       <c r="M3">
-        <v>0.9683500300167508</v>
+        <v>0.9881379728826389</v>
       </c>
       <c r="N3">
-        <v>-5.824010430348121E-21</v>
+        <v>-3.679545458392715E-22</v>
       </c>
       <c r="O3">
-        <v>0.6316700807513026</v>
+        <v>1.226937429029335</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3542,46 +3653,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.009711271312423447</v>
+        <v>0.00989371983331824</v>
       </c>
       <c r="C4">
-        <v>1.025581725144126E-25</v>
+        <v>1.022441136842821E-25</v>
       </c>
       <c r="D4">
-        <v>-0.009525641014825439</v>
+        <v>-0.009525641018342513</v>
       </c>
       <c r="E4">
-        <v>2.954100322904935E-33</v>
+        <v>1.586752643688855E-33</v>
       </c>
       <c r="F4">
-        <v>0.0001856302975980079</v>
+        <v>0.0003680788149757266</v>
       </c>
       <c r="G4">
-        <v>1.025581754685129E-25</v>
+        <v>1.022441152710347E-25</v>
       </c>
       <c r="H4">
-        <v>0.008268743373633527</v>
+        <v>0.008256073129159143</v>
       </c>
       <c r="I4">
-        <v>0.008268743373633527</v>
+        <v>0.008256073129159143</v>
       </c>
       <c r="J4">
-        <v>0.008268743373633527</v>
+        <v>0.008256073129159143</v>
       </c>
       <c r="K4">
-        <v>0.9686745879807602</v>
+        <v>0.9883878760158898</v>
       </c>
       <c r="L4">
-        <v>-5.761681987138804E-21</v>
+        <v>-3.559821365879143E-22</v>
       </c>
       <c r="M4">
-        <v>0.950158438420356</v>
+        <v>0.951616606536927</v>
       </c>
       <c r="N4">
-        <v>-6.366767606020553E-21</v>
+        <v>-9.480907051835564E-22</v>
       </c>
       <c r="O4">
-        <v>29.7313605152161</v>
+        <v>41.86593199475175</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -3589,46 +3700,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.009711271312423447</v>
+        <v>0.01936360339678121</v>
       </c>
       <c r="C5">
-        <v>1.025581725144126E-25</v>
+        <v>3.916439812049226E-25</v>
       </c>
       <c r="D5">
-        <v>-0.009525641014825439</v>
+        <v>-0.01865472778042507</v>
       </c>
       <c r="E5">
-        <v>2.954100322904935E-33</v>
+        <v>5.732169356583775E-33</v>
       </c>
       <c r="F5">
-        <v>0.0001856302975980079</v>
+        <v>0.000708875616356134</v>
       </c>
       <c r="G5">
-        <v>1.025581754685129E-25</v>
+        <v>3.916439869370919E-25</v>
       </c>
       <c r="H5">
-        <v>0.008268743373633527</v>
+        <v>0.01615846500418259</v>
       </c>
       <c r="I5">
-        <v>0.008268743373633527</v>
+        <v>0.01615846500418259</v>
       </c>
       <c r="J5">
-        <v>0.008268743373633527</v>
+        <v>0.01615846500418259</v>
       </c>
       <c r="K5">
-        <v>0.9686745879807602</v>
+        <v>0.9883878760158898</v>
       </c>
       <c r="L5">
-        <v>-5.761681987138804E-21</v>
+        <v>-3.559821365879143E-22</v>
       </c>
       <c r="M5">
-        <v>0.950158438420356</v>
+        <v>0.9522043181081628</v>
       </c>
       <c r="N5">
-        <v>-6.366767606020553E-21</v>
+        <v>-1.514833982282216E-21</v>
       </c>
       <c r="O5">
-        <v>29.7313605152161</v>
+        <v>58.09989821957046</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -3636,46 +3747,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.01388475844459495</v>
+        <v>-0.00455997488913339</v>
       </c>
       <c r="C6">
-        <v>2.096499584418539E-25</v>
+        <v>4.343841828290481E-26</v>
       </c>
       <c r="D6">
-        <v>0.01389999999613839</v>
+        <v>0.004579999999969136</v>
       </c>
       <c r="E6">
-        <v>-5.987438148604909E-33</v>
+        <v>1.589208956225156E-35</v>
       </c>
       <c r="F6">
-        <v>1.524155154343509E-05</v>
+        <v>2.002511083574587E-05</v>
       </c>
       <c r="G6">
-        <v>2.096499524544158E-25</v>
+        <v>4.34384182987969E-26</v>
       </c>
       <c r="H6">
-        <v>0.01182229398084811</v>
+        <v>0.003805190240482894</v>
       </c>
       <c r="I6">
-        <v>0.01182229398084811</v>
+        <v>0.003805190240482894</v>
       </c>
       <c r="J6">
-        <v>0.01182229398084811</v>
+        <v>0.003805190240482894</v>
       </c>
       <c r="K6">
-        <v>0.9686745879807602</v>
+        <v>0.9883878760158898</v>
       </c>
       <c r="L6">
-        <v>-5.761681987138804E-21</v>
+        <v>-3.559821365879143E-22</v>
       </c>
       <c r="M6">
-        <v>0.9697379196707164</v>
+        <v>0.9927283772789762</v>
       </c>
       <c r="N6">
-        <v>-4.896556569288369E-21</v>
+        <v>1.89818684195536E-22</v>
       </c>
       <c r="O6">
-        <v>8.519320211935817</v>
+        <v>6.904986265243787</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -3683,131 +3794,131 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03433799544248763</v>
+        <v>0.004271691725556597</v>
       </c>
       <c r="C7">
-        <v>1.282236032198305E-24</v>
+        <v>3.811965025166548E-27</v>
       </c>
       <c r="D7">
-        <v>-0.0337468846161668</v>
+        <v>-0.004257968651447303</v>
       </c>
       <c r="E7">
-        <v>3.357356378285207E-32</v>
+        <v>5.192637240105767E-36</v>
       </c>
       <c r="F7">
-        <v>0.0005911108263208301</v>
+        <v>1.372307410929356E-05</v>
       </c>
       <c r="G7">
-        <v>1.282236065771869E-24</v>
+        <v>3.811965030359186E-27</v>
       </c>
       <c r="H7">
-        <v>0.02923737409289542</v>
+        <v>0.003564624819135493</v>
       </c>
       <c r="I7">
-        <v>0.02923737409289542</v>
+        <v>0.003564624819135492</v>
       </c>
       <c r="J7">
-        <v>0.02923737409289542</v>
+        <v>0.003564624819135493</v>
       </c>
       <c r="K7">
-        <v>0.9686745879807602</v>
+        <v>0.9883878760158898</v>
       </c>
       <c r="L7">
-        <v>-5.761681987138804E-21</v>
+        <v>-3.559821365879143E-22</v>
       </c>
       <c r="M7">
-        <v>0.9519993561054363</v>
+        <v>0.9852126187776056</v>
       </c>
       <c r="N7">
-        <v>-7.901198694365645E-21</v>
+        <v>-4.071116473120384E-22</v>
       </c>
       <c r="O7">
-        <v>53.05481560302161</v>
+        <v>18.07594699441938</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0.007898805991576455</v>
+        <v>0.001601929916955748</v>
       </c>
       <c r="C8">
-        <v>6.784861616541874E-26</v>
+        <v>5.360880474020236E-28</v>
       </c>
       <c r="D8">
-        <v>-0.007775999993339091</v>
+        <v>-0.001599999999981015</v>
       </c>
       <c r="E8">
-        <v>1.645279015089484E-33</v>
+        <v>1.134844229405729E-36</v>
       </c>
       <c r="F8">
-        <v>0.0001228059982373636</v>
+        <v>1.929916974732597E-06</v>
       </c>
       <c r="G8">
-        <v>6.784861781069776E-26</v>
+        <v>5.360880485368679E-28</v>
       </c>
       <c r="H8">
-        <v>0.006725504581352871</v>
+        <v>0.001336772292422875</v>
       </c>
       <c r="I8">
-        <v>0.006725504581352871</v>
+        <v>0.001336772292422875</v>
       </c>
       <c r="J8">
-        <v>0.006725504581352871</v>
+        <v>0.001336772292422875</v>
       </c>
       <c r="K8">
-        <v>0.9686745879807602</v>
+        <v>0.9883878760158898</v>
       </c>
       <c r="L8">
-        <v>-5.761681987138804E-21</v>
+        <v>-3.559821365879143E-22</v>
       </c>
       <c r="M8">
-        <v>0.9536142041871837</v>
+        <v>0.9871971207154532</v>
       </c>
       <c r="N8">
-        <v>-6.25383731441024E-21</v>
+        <v>-3.751562479541694E-22</v>
       </c>
       <c r="O8">
-        <v>24.18244131176515</v>
+        <v>6.778672743266312</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.01383333333317851</v>
+        <v>-0.0009301075244944008</v>
       </c>
       <c r="C9">
-        <v>3.093268384795732E-34</v>
+        <v>6.613452468831295E-34</v>
       </c>
       <c r="D9">
-        <v>0.01421346566571846</v>
+        <v>0.0009313821783489828</v>
       </c>
       <c r="E9">
-        <v>8.245820659378472E-25</v>
+        <v>3.540698538164139E-28</v>
       </c>
       <c r="F9">
-        <v>0.000380132332539947</v>
+        <v>1.274653854582025E-06</v>
       </c>
       <c r="G9">
-        <v>8.245820662471741E-25</v>
+        <v>3.540705151616608E-28</v>
       </c>
       <c r="H9">
-        <v>0.02344613779491445</v>
+        <v>0.001536382146823444</v>
       </c>
       <c r="I9">
-        <v>0.02344613779491445</v>
+        <v>0.001536382146823444</v>
       </c>
       <c r="J9">
-        <v>0.02344613779491445</v>
+        <v>0.001536382146823444</v>
       </c>
       <c r="K9">
-        <v>0.9732554788902196</v>
+        <v>0.9986314384318138</v>
       </c>
       <c r="L9">
-        <v>-3.323965693502719E-21</v>
+        <v>-2.178133390599801E-23</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -3816,45 +3927,45 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>42.54590420329481</v>
+        <v>7.790879449660594</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.01056993006939143</v>
+        <v>-0.0009301075244944008</v>
       </c>
       <c r="C10">
-        <v>6.564172594987778E-34</v>
+        <v>6.613452468831295E-34</v>
       </c>
       <c r="D10">
-        <v>0.01093133897246323</v>
+        <v>0.0009313821783489828</v>
       </c>
       <c r="E10">
-        <v>4.87731312530904E-25</v>
+        <v>3.540698538164139E-28</v>
       </c>
       <c r="F10">
-        <v>0.0003614089030718037</v>
+        <v>1.274653854582025E-06</v>
       </c>
       <c r="G10">
-        <v>4.877313131873213E-25</v>
+        <v>3.540705151616608E-28</v>
       </c>
       <c r="H10">
-        <v>0.01803203285244199</v>
+        <v>0.001536382146823444</v>
       </c>
       <c r="I10">
-        <v>0.01803203285244199</v>
+        <v>0.001536382146823444</v>
       </c>
       <c r="J10">
-        <v>0.01803203285244199</v>
+        <v>0.001536382146823444</v>
       </c>
       <c r="K10">
-        <v>0.9669382768220602</v>
+        <v>0.9986314384318138</v>
       </c>
       <c r="L10">
-        <v>-2.556406479909552E-21</v>
+        <v>-2.178133390599801E-23</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -3863,45 +3974,45 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>41.48487406913999</v>
+        <v>7.790879449660594</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.007193227091633313</v>
+        <v>-0.0009301075244944008</v>
       </c>
       <c r="C11">
-        <v>5.605409096743389E-38</v>
+        <v>6.613452468831295E-34</v>
       </c>
       <c r="D11">
-        <v>0.007270907893988543</v>
+        <v>0.0009313821783489828</v>
       </c>
       <c r="E11">
-        <v>2.157800065417433E-26</v>
+        <v>3.540698538164139E-28</v>
       </c>
       <c r="F11">
-        <v>7.768080235523011E-05</v>
+        <v>1.274653854582025E-06</v>
       </c>
       <c r="G11">
-        <v>2.157800065423039E-26</v>
+        <v>3.540705151616608E-28</v>
       </c>
       <c r="H11">
-        <v>0.01199388751384932</v>
+        <v>0.001536382146823444</v>
       </c>
       <c r="I11">
-        <v>0.01199388751384932</v>
+        <v>0.001536382146823444</v>
       </c>
       <c r="J11">
-        <v>0.01199388751384932</v>
+        <v>0.001536382146823444</v>
       </c>
       <c r="K11">
-        <v>0.9893162169720985</v>
+        <v>0.9986314384318138</v>
       </c>
       <c r="L11">
-        <v>-1.700376879811858E-22</v>
+        <v>-2.178133390599801E-23</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -3910,7 +4021,54 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>60.82011037838987</v>
+        <v>7.790879449660594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-0.0007999999986943761</v>
+      </c>
+      <c r="C12">
+        <v>3.618451255849373E-34</v>
+      </c>
+      <c r="D12">
+        <v>0.0008009426242922002</v>
+      </c>
+      <c r="E12">
+        <v>2.618400819949083E-28</v>
+      </c>
+      <c r="F12">
+        <v>9.426255978240653E-07</v>
+      </c>
+      <c r="G12">
+        <v>2.618404438400339E-28</v>
+      </c>
+      <c r="H12">
+        <v>0.001321212684972992</v>
+      </c>
+      <c r="I12">
+        <v>0.001321212684972992</v>
+      </c>
+      <c r="J12">
+        <v>0.001321212684972992</v>
+      </c>
+      <c r="K12">
+        <v>0.9988231047153258</v>
+      </c>
+      <c r="L12">
+        <v>-1.87308702362448E-23</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>6.699771132637267</v>
       </c>
     </row>
   </sheetData>
@@ -3928,10 +4086,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3939,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.05223154547698421</v>
+        <v>0.0335715005188572</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3952,7 +4110,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3960,18 +4118,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>0.007776000000000002</v>
+        <v>0.0016</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3979,10 +4137,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>0.01296</v>
+        <v>0.0004</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3990,10 +4148,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0.009720000000000001</v>
+        <v>0.0008</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4001,12 +4159,23 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>0.006480000000000001</v>
+        <v>0.0004</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0.0004</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
     </row>
@@ -4017,7 +4186,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4025,10 +4194,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4036,9 +4205,20 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.015</v>
+        <v>0.003</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.003</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
     </row>
@@ -4057,10 +4237,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4090,7 +4270,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.008800000000000001</v>
+        <v>0.0176</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4103,7 +4283,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4114,34 +4294,34 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -4149,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4158,28 +4338,28 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F2">
         <v>0.1</v>
       </c>
       <c r="G2" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H2">
         <v>0.00085</v>
       </c>
       <c r="I2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="J2" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4187,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -4196,28 +4376,28 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F3">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H3">
         <v>0.0005</v>
       </c>
       <c r="I3" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="J3" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4225,7 +4405,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -4234,28 +4414,28 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F4">
         <v>0.014</v>
       </c>
       <c r="G4" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="H4">
         <v>0.0005</v>
       </c>
       <c r="I4" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="J4" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -4263,7 +4443,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -4272,28 +4452,28 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F5">
-        <v>0.014</v>
+        <v>0.036</v>
       </c>
       <c r="G5" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="H5">
         <v>0.0005</v>
       </c>
       <c r="I5" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="J5" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -4301,34 +4481,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C6">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F6">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G6" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H6">
         <v>0.0005</v>
       </c>
       <c r="I6" t="s">
-        <v>322</v>
+        <v>330</v>
+      </c>
+      <c r="J6" t="s">
+        <v>335</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -4336,37 +4519,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
         <v>11</v>
       </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
       <c r="E7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F7">
-        <v>0.024</v>
+        <v>0.04</v>
       </c>
       <c r="G7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H7">
         <v>0.0005</v>
       </c>
       <c r="I7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="J7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -4374,37 +4557,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
         <v>13</v>
       </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
       <c r="E8" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F8">
-        <v>0.024</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G8" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="H8">
         <v>0.0005</v>
       </c>
       <c r="I8" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="J8" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -4412,37 +4595,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
         <v>15</v>
       </c>
-      <c r="D9">
-        <v>16</v>
-      </c>
       <c r="E9" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F9">
-        <v>0.014</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G9" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="H9">
         <v>0.0005</v>
       </c>
       <c r="I9" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="J9" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -4450,34 +4633,75 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
         <v>17</v>
       </c>
-      <c r="D10">
-        <v>18</v>
-      </c>
       <c r="E10" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F10">
-        <v>0.036</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G10" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="H10">
         <v>0.0005</v>
       </c>
       <c r="I10" t="s">
-        <v>322</v>
+        <v>330</v>
+      </c>
+      <c r="J10" t="s">
+        <v>338</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>335</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G11" t="s">
+        <v>329</v>
+      </c>
+      <c r="H11">
+        <v>0.0005</v>
+      </c>
+      <c r="I11" t="s">
+        <v>330</v>
+      </c>
+      <c r="J11" t="s">
+        <v>339</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -4487,7 +4711,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4495,13 +4719,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4509,13 +4733,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.05223154547698421</v>
+        <v>0.0335715005188572</v>
       </c>
       <c r="C2">
-        <v>49.83588281538218</v>
+        <v>31.43613677318741</v>
       </c>
       <c r="D2">
-        <v>-0.002395662661602023</v>
+        <v>-0.002135363745669784</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4551,13 +4775,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.009525641025641027</v>
+        <v>0.01865472779369628</v>
       </c>
       <c r="C5">
-        <v>62.85714285714285</v>
+        <v>48.88888888888889</v>
       </c>
       <c r="D5">
-        <v>-0.0007256410256410266</v>
+        <v>-0.001054727793696277</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4565,13 +4789,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.0139</v>
+        <v>-0.00229</v>
       </c>
       <c r="C6">
-        <v>-30</v>
+        <v>-7.5</v>
       </c>
       <c r="D6">
-        <v>-0.0011</v>
+        <v>-0.0007099999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4579,13 +4803,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01383333333333334</v>
+        <v>-0.00229</v>
       </c>
       <c r="C7">
-        <v>54.00000000000001</v>
+        <v>-7.5</v>
       </c>
       <c r="D7">
-        <v>-0.0008733333333333336</v>
+        <v>-0.0007099999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4593,13 +4817,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01056993006993007</v>
+        <v>0.0009301075268817204</v>
       </c>
       <c r="C8">
-        <v>40.5</v>
+        <v>4.444444444444446</v>
       </c>
       <c r="D8">
-        <v>-0.0008499300699300709</v>
+        <v>-0.0005301075268817205</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4607,13 +4831,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.007193227091633468</v>
+        <v>0.0009301075268817204</v>
       </c>
       <c r="C9">
-        <v>46.2857142857143</v>
+        <v>4.444444444444446</v>
       </c>
       <c r="D9">
-        <v>-0.0007132270916334667</v>
+        <v>-0.0005301075268817205</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4621,13 +4845,27 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03374688464909114</v>
+        <v>0.0009301075268817204</v>
       </c>
       <c r="C10">
-        <v>90.04364592462186</v>
+        <v>4.444444444444446</v>
       </c>
       <c r="D10">
-        <v>-0.001331172116227276</v>
+        <v>-0.0005301075268817205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.004257968651508072</v>
+      </c>
+      <c r="C11">
+        <v>39.94543519785258</v>
+      </c>
+      <c r="D11">
+        <v>-0.000662879483701341</v>
       </c>
     </row>
   </sheetData>
@@ -4637,7 +4875,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4645,13 +4883,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4659,13 +4897,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4673,13 +4911,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4687,13 +4925,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4701,13 +4939,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4715,13 +4953,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4729,13 +4967,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4743,13 +4981,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4757,13 +4995,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4771,13 +5009,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4785,13 +5023,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4799,13 +5037,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4813,13 +5051,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4827,13 +5065,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4841,13 +5079,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4855,13 +5093,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4869,13 +5107,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4883,13 +5121,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4897,13 +5135,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4911,13 +5149,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4925,13 +5163,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4939,13 +5177,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4953,13 +5191,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4967,13 +5205,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4981,13 +5219,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4995,13 +5233,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5009,13 +5247,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5023,13 +5261,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5037,13 +5275,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5051,13 +5289,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5065,13 +5303,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5079,13 +5317,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5093,13 +5331,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5107,13 +5345,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5121,13 +5359,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5135,13 +5373,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5149,13 +5387,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5163,13 +5401,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5177,13 +5415,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5191,13 +5429,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5205,13 +5443,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5219,13 +5457,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5233,13 +5471,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -5247,13 +5485,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5261,13 +5499,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -5275,13 +5513,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5289,13 +5527,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5303,13 +5541,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D48" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5317,13 +5555,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -5331,13 +5569,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5345,13 +5583,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -5359,13 +5597,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5373,13 +5611,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C53" t="s">
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -5387,13 +5625,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D54" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -5401,13 +5639,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -5415,13 +5653,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -5429,13 +5667,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D57" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -5443,13 +5681,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C58" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D58" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5457,13 +5695,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D59" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -5471,13 +5709,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D60" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -5485,13 +5723,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D61" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -5499,13 +5737,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D62" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5513,13 +5751,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C63" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D63" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -5527,13 +5765,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C64" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D64" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -5541,13 +5779,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -5555,13 +5793,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5569,13 +5807,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D67" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -5583,13 +5821,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="D68" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -5597,13 +5835,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C69" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D69" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -5611,13 +5849,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D70" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -5625,13 +5863,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -5639,13 +5877,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="C72" t="s">
-        <v>283</v>
+        <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5653,13 +5891,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C73" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D73" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -5667,13 +5905,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C74" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D74" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -5681,13 +5919,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C75" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D75" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -5695,13 +5933,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C76" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D76" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -5709,13 +5947,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C77" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D77" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -5723,13 +5961,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C78" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D78" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -5737,13 +5975,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C79" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D79" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -5751,13 +5989,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C80" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D80" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -5765,13 +6003,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C81" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D81" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -5779,13 +6017,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C82" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D82" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -5793,13 +6031,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C83" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D83" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -5807,13 +6045,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C84" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D84" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -5821,13 +6059,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C85" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D85" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -5835,13 +6073,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>301</v>
       </c>
       <c r="D86" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -5849,13 +6087,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -5863,13 +6101,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D88" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -5877,13 +6115,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -5891,13 +6129,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D90" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -5905,13 +6143,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D91" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -5919,13 +6157,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D92" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -5933,13 +6171,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D93" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -5947,13 +6185,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C94" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D94" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -5961,13 +6199,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C95" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -5975,13 +6213,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C96" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D96" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -5989,13 +6227,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C97" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="D97" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -6003,13 +6241,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C98" t="s">
-        <v>297</v>
+        <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -6017,13 +6255,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C99" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D99" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -6031,13 +6269,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C100" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D100" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -6045,13 +6283,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C101" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D101" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -6059,13 +6297,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>305</v>
       </c>
       <c r="D102" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -6073,13 +6311,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C103" t="s">
-        <v>301</v>
+        <v>35</v>
       </c>
       <c r="D103" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -6087,13 +6325,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C104" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D104" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -6101,13 +6339,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="D105" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -6115,13 +6353,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C106" t="s">
-        <v>336</v>
+        <v>29</v>
       </c>
       <c r="D106" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -6129,13 +6367,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C107" t="s">
-        <v>287</v>
+        <v>346</v>
       </c>
       <c r="D107" t="s">
-        <v>354</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>362</v>
+      </c>
+      <c r="C108" t="s">
+        <v>292</v>
+      </c>
+      <c r="D108" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -6145,7 +6397,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6156,25 +6408,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -6183,30 +6435,30 @@
         <v>2</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>0.007776000000000002</v>
+        <v>0.0016</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6224,27 +6476,27 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M2">
-        <v>0.012</v>
+        <v>0.002</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>0.01296</v>
+        <v>0.0004</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6262,30 +6514,30 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>0.02</v>
+        <v>0.0005</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>0.009720000000000001</v>
+        <v>0.0008</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6303,30 +6555,27 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>0.015</v>
+        <v>0.001</v>
       </c>
       <c r="N4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>0.006480000000000001</v>
+        <v>0.0004</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6344,16 +6593,57 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>0.01</v>
+        <v>0.0005</v>
       </c>
       <c r="N5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>43</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>0.0004</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6">
+        <v>0.0005</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -6371,25 +6661,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6397,10 +6687,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C2" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -6422,7 +6712,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6433,19 +6723,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -6454,16 +6744,16 @@
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -6471,13 +6761,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>0.015</v>
+        <v>0.003</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6489,16 +6779,51 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0.003</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0.03</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -6519,28 +6844,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -6549,13 +6874,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -6563,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -6581,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -6590,7 +6915,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.055</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -6598,7 +6923,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -6628,7 +6953,7 @@
         <v>0.011</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -6636,13 +6961,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>0.008800000000000001</v>
+        <v>0.0176</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6654,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.044</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -6663,10 +6988,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.011</v>
+        <v>0.022</v>
       </c>
       <c r="N4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -6687,16 +7012,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -6729,48 +7054,48 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
@@ -6779,10 +7104,13 @@
         <v>4</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6793,10 +7121,10 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G2">
-        <v>3.08</v>
+        <v>18.1</v>
       </c>
       <c r="H2">
         <v>9.999999999999999E-21</v>
@@ -6808,7 +7136,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.06741998624632421</v>
+        <v>0.0278115203285154</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -6820,10 +7148,13 @@
         <v>1</v>
       </c>
       <c r="P2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6834,10 +7165,10 @@
         <v>4</v>
       </c>
       <c r="F3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="G3">
-        <v>3.08</v>
+        <v>12.1</v>
       </c>
       <c r="H3">
         <v>9.999999999999999E-21</v>
@@ -6849,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.06741998624632421</v>
+        <v>0.03401506715249038</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -6861,10 +7192,13 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6878,7 +7212,7 @@
         <v>0.05</v>
       </c>
       <c r="G4">
-        <v>18.1</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>9.999999999999999E-21</v>
@@ -6890,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0278115203285154</v>
+        <v>0.01972026594366539</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -6902,10 +7236,13 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6945,8 +7282,11 @@
       <c r="P5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6954,13 +7294,13 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="G6">
-        <v>0.727</v>
+        <v>4.61</v>
       </c>
       <c r="H6">
         <v>9.999999999999999E-21</v>
@@ -6972,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1387703911432362</v>
+        <v>0.0551078611066368</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -6984,10 +7324,13 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6995,13 +7338,13 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G7">
-        <v>4.61</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>9.999999999999999E-21</v>
@@ -7013,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.0551078611066368</v>
+        <v>0.01972026594366539</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -7025,24 +7368,27 @@
         <v>1</v>
       </c>
       <c r="P7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="G8">
-        <v>18.1</v>
+        <v>36</v>
       </c>
       <c r="H8">
         <v>9.999999999999999E-21</v>
@@ -7054,7 +7400,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.0278115203285154</v>
+        <v>0.01972026594366539</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -7066,24 +7412,27 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="G9">
-        <v>4.61</v>
+        <v>36</v>
       </c>
       <c r="H9">
         <v>9.999999999999999E-21</v>
@@ -7095,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.0551078611066368</v>
+        <v>0.01972026594366539</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -7107,24 +7456,27 @@
         <v>1</v>
       </c>
       <c r="P9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="G10">
-        <v>7.41</v>
+        <v>36</v>
       </c>
       <c r="H10">
         <v>9.999999999999999E-21</v>
@@ -7136,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.04346652426228712</v>
+        <v>0.01972026594366539</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -7148,18 +7500,21 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11">
         <v>0.005</v>
@@ -7190,6 +7545,53 @@
       </c>
       <c r="P11">
         <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>0.005</v>
+      </c>
+      <c r="G12">
+        <v>36</v>
+      </c>
+      <c r="H12">
+        <v>9.999999999999999E-21</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0.01972026594366539</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -7207,33 +7609,33 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B2">
         <v>210</v>
@@ -7248,7 +7650,7 @@
         <v>0.142</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -7257,12 +7659,12 @@
         <v>0.00403</v>
       </c>
       <c r="I2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B3">
         <v>264</v>
@@ -7277,7 +7679,7 @@
         <v>0.242</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G3">
         <v>120</v>
@@ -7286,12 +7688,12 @@
         <v>0.00403</v>
       </c>
       <c r="I3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B4">
         <v>261</v>
@@ -7306,7 +7708,7 @@
         <v>0.27</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G4">
         <v>150</v>
@@ -7315,12 +7717,12 @@
         <v>0.00403</v>
       </c>
       <c r="I4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B5">
         <v>216</v>
@@ -7335,7 +7737,7 @@
         <v>0.252</v>
       </c>
       <c r="F5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G5">
         <v>95</v>
@@ -7344,12 +7746,12 @@
         <v>0.00403</v>
       </c>
       <c r="I5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B6">
         <v>273</v>
@@ -7364,7 +7766,7 @@
         <v>0.362</v>
       </c>
       <c r="F6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G6">
         <v>185</v>
@@ -7373,12 +7775,12 @@
         <v>0.00403</v>
       </c>
       <c r="I6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B7">
         <v>304</v>
@@ -7393,7 +7795,7 @@
         <v>0.421</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G7">
         <v>240</v>
@@ -7402,12 +7804,12 @@
         <v>0.00403</v>
       </c>
       <c r="I7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B8">
         <v>315</v>
@@ -7422,7 +7824,7 @@
         <v>0.249</v>
       </c>
       <c r="F8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G8">
         <v>95</v>
@@ -7431,12 +7833,12 @@
         <v>0.00403</v>
       </c>
       <c r="I8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>406</v>
@@ -7451,7 +7853,7 @@
         <v>0.358</v>
       </c>
       <c r="F9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G9">
         <v>185</v>
@@ -7460,12 +7862,12 @@
         <v>0.00403</v>
       </c>
       <c r="I9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>456</v>
@@ -7480,7 +7882,7 @@
         <v>0.416</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G10">
         <v>240</v>
@@ -7489,12 +7891,12 @@
         <v>0.00403</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>250</v>
@@ -7509,7 +7911,7 @@
         <v>0.319</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G11">
         <v>150</v>
@@ -7518,12 +7920,12 @@
         <v>0.00403</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B12">
         <v>230</v>
@@ -7538,7 +7940,7 @@
         <v>0.283</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G12">
         <v>120</v>
@@ -7547,12 +7949,12 @@
         <v>0.00403</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B13">
         <v>190</v>
@@ -7567,7 +7969,7 @@
         <v>0.22</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G13">
         <v>70</v>
@@ -7576,12 +7978,12 @@
         <v>0.00403</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B14">
         <v>360</v>
@@ -7596,7 +7998,7 @@
         <v>0.315</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G14">
         <v>150</v>
@@ -7605,12 +8007,12 @@
         <v>0.00403</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B15">
         <v>340</v>
@@ -7625,7 +8027,7 @@
         <v>0.28</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G15">
         <v>120</v>
@@ -7634,12 +8036,12 @@
         <v>0.00403</v>
       </c>
       <c r="I15" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B16">
         <v>280</v>
@@ -7654,7 +8056,7 @@
         <v>0.217</v>
       </c>
       <c r="F16" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G16">
         <v>70</v>
@@ -7663,12 +8065,12 @@
         <v>0.00403</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B17">
         <v>112</v>
@@ -7683,7 +8085,7 @@
         <v>0.366</v>
       </c>
       <c r="F17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G17">
         <v>120</v>
@@ -7692,12 +8094,12 @@
         <v>0.00393</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B18">
         <v>125</v>
@@ -7712,7 +8114,7 @@
         <v>0.457</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G18">
         <v>185</v>
@@ -7721,12 +8123,12 @@
         <v>0.00393</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B19">
         <v>135</v>
@@ -7741,7 +8143,7 @@
         <v>0.526</v>
       </c>
       <c r="F19" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G19">
         <v>240</v>
@@ -7750,12 +8152,12 @@
         <v>0.00393</v>
       </c>
       <c r="I19" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B20">
         <v>144</v>
@@ -7770,7 +8172,7 @@
         <v>0.588</v>
       </c>
       <c r="F20" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G20">
         <v>300</v>
@@ -7779,12 +8181,12 @@
         <v>0.00393</v>
       </c>
       <c r="I20" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B21">
         <v>11</v>
@@ -7799,7 +8201,7 @@
         <v>0.105</v>
       </c>
       <c r="F21" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G21">
         <v>16</v>
@@ -7808,12 +8210,12 @@
         <v>0.00403</v>
       </c>
       <c r="I21" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B22">
         <v>11.25</v>
@@ -7828,7 +8230,7 @@
         <v>0.14</v>
       </c>
       <c r="F22" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G22">
         <v>24</v>
@@ -7837,12 +8239,12 @@
         <v>0.00403</v>
       </c>
       <c r="I22" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B23">
         <v>12.2</v>
@@ -7857,7 +8259,7 @@
         <v>0.21</v>
       </c>
       <c r="F23" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G23">
         <v>48</v>
@@ -7866,12 +8268,12 @@
         <v>0.00403</v>
       </c>
       <c r="I23" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B24">
         <v>13.2</v>
@@ -7886,7 +8288,7 @@
         <v>0.35</v>
       </c>
       <c r="F24" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G24">
         <v>94</v>
@@ -7895,12 +8297,12 @@
         <v>0.00403</v>
       </c>
       <c r="I24" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B25">
         <v>9.699999999999999</v>
@@ -7915,7 +8317,7 @@
         <v>0.17</v>
       </c>
       <c r="F25" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G25">
         <v>34</v>
@@ -7924,12 +8326,12 @@
         <v>0.00403</v>
       </c>
       <c r="I25" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B26">
         <v>10.1</v>
@@ -7944,7 +8346,7 @@
         <v>0.21</v>
       </c>
       <c r="F26" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G26">
         <v>48</v>
@@ -7953,12 +8355,12 @@
         <v>0.00403</v>
       </c>
       <c r="I26" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B27">
         <v>10.4</v>
@@ -7973,7 +8375,7 @@
         <v>0.29</v>
       </c>
       <c r="F27" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G27">
         <v>70</v>
@@ -7982,12 +8384,12 @@
         <v>0.00403</v>
       </c>
       <c r="I27" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B28">
         <v>10.75</v>
@@ -8002,7 +8404,7 @@
         <v>0.35</v>
       </c>
       <c r="F28" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G28">
         <v>94</v>
@@ -8011,12 +8413,12 @@
         <v>0.00403</v>
       </c>
       <c r="I28" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B29">
         <v>11.1</v>
@@ -8031,7 +8433,7 @@
         <v>0.41</v>
       </c>
       <c r="F29" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G29">
         <v>122</v>
@@ -8040,12 +8442,12 @@
         <v>0.00403</v>
       </c>
       <c r="I29" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B30">
         <v>11.25</v>
@@ -8060,7 +8462,7 @@
         <v>0.47</v>
       </c>
       <c r="F30" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G30">
         <v>149</v>
@@ -8069,12 +8471,12 @@
         <v>0.00403</v>
       </c>
       <c r="I30" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B31">
         <v>9.15</v>
@@ -8089,7 +8491,7 @@
         <v>0.17</v>
       </c>
       <c r="F31" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G31">
         <v>34</v>
@@ -8098,12 +8500,12 @@
         <v>0.00403</v>
       </c>
       <c r="I31" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B32">
         <v>9.5</v>
@@ -8118,7 +8520,7 @@
         <v>0.21</v>
       </c>
       <c r="F32" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G32">
         <v>48</v>
@@ -8127,12 +8529,12 @@
         <v>0.00403</v>
       </c>
       <c r="I32" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B33">
         <v>9.699999999999999</v>
@@ -8147,7 +8549,7 @@
         <v>0.29</v>
       </c>
       <c r="F33" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G33">
         <v>70</v>
@@ -8156,12 +8558,12 @@
         <v>0.00403</v>
       </c>
       <c r="I33" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B34">
         <v>10</v>
@@ -8176,7 +8578,7 @@
         <v>0.35</v>
       </c>
       <c r="F34" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G34">
         <v>94</v>
@@ -8185,12 +8587,12 @@
         <v>0.00403</v>
       </c>
       <c r="I34" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B35">
         <v>10.3</v>
@@ -8205,7 +8607,7 @@
         <v>0.41</v>
       </c>
       <c r="F35" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G35">
         <v>122</v>
@@ -8214,12 +8616,12 @@
         <v>0.00403</v>
       </c>
       <c r="I35" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B36">
         <v>10.5</v>
@@ -8234,7 +8636,7 @@
         <v>0.47</v>
       </c>
       <c r="F36" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G36">
         <v>149</v>
@@ -8243,12 +8645,12 @@
         <v>0.00403</v>
       </c>
       <c r="I36" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B37">
         <v>10.75</v>
@@ -8263,7 +8665,7 @@
         <v>0.535</v>
       </c>
       <c r="F37" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G37">
         <v>184</v>
@@ -8272,12 +8674,12 @@
         <v>0.00403</v>
       </c>
       <c r="I37" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B38">
         <v>11</v>
@@ -8292,7 +8694,7 @@
         <v>0.645</v>
       </c>
       <c r="F38" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G38">
         <v>243</v>
@@ -8301,12 +8703,12 @@
         <v>0.00403</v>
       </c>
       <c r="I38" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -8321,7 +8723,7 @@
         <v>0.21</v>
       </c>
       <c r="F39" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G39">
         <v>48</v>
@@ -8330,12 +8732,12 @@
         <v>0.00403</v>
       </c>
       <c r="I39" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B40">
         <v>8.4</v>
@@ -8350,7 +8752,7 @@
         <v>0.29</v>
       </c>
       <c r="F40" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G40">
         <v>70</v>
@@ -8359,12 +8761,12 @@
         <v>0.00403</v>
       </c>
       <c r="I40" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B41">
         <v>8.65</v>
@@ -8379,7 +8781,7 @@
         <v>0.35</v>
       </c>
       <c r="F41" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G41">
         <v>94</v>
@@ -8388,12 +8790,12 @@
         <v>0.00403</v>
       </c>
       <c r="I41" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B42">
         <v>8.5</v>
@@ -8408,7 +8810,7 @@
         <v>0.41</v>
       </c>
       <c r="F42" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G42">
         <v>122</v>
@@ -8417,12 +8819,12 @@
         <v>0.00403</v>
       </c>
       <c r="I42" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B43">
         <v>8.75</v>
@@ -8437,7 +8839,7 @@
         <v>0.47</v>
       </c>
       <c r="F43" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G43">
         <v>149</v>
@@ -8446,12 +8848,12 @@
         <v>0.00403</v>
       </c>
       <c r="I43" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B44">
         <v>8.800000000000001</v>
@@ -8466,7 +8868,7 @@
         <v>0.535</v>
       </c>
       <c r="F44" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G44">
         <v>184</v>
@@ -8475,12 +8877,12 @@
         <v>0.00403</v>
       </c>
       <c r="I44" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B45">
         <v>9</v>
@@ -8495,7 +8897,7 @@
         <v>0.645</v>
       </c>
       <c r="F45" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G45">
         <v>243</v>
@@ -8504,12 +8906,12 @@
         <v>0.00403</v>
       </c>
       <c r="I45" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B46">
         <v>9.199999999999999</v>
@@ -8524,7 +8926,7 @@
         <v>0.74</v>
       </c>
       <c r="F46" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G46">
         <v>305</v>
@@ -8533,12 +8935,12 @@
         <v>0.00403</v>
       </c>
       <c r="I46" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B47">
         <v>9.75</v>
@@ -8553,7 +8955,7 @@
         <v>0.96</v>
       </c>
       <c r="F47" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G47">
         <v>490</v>
@@ -8562,12 +8964,12 @@
         <v>0.00403</v>
       </c>
       <c r="I47" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B48">
         <v>9.949999999999999</v>
@@ -8582,7 +8984,7 @@
         <v>1.15</v>
       </c>
       <c r="F48" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G48">
         <v>679</v>
@@ -8591,12 +8993,12 @@
         <v>0.00403</v>
       </c>
       <c r="I48" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B49">
         <v>10</v>
@@ -8611,7 +9013,7 @@
         <v>0.96</v>
       </c>
       <c r="F49" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G49">
         <v>490</v>
@@ -8620,12 +9022,12 @@
         <v>0.00403</v>
       </c>
       <c r="I49" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B50">
         <v>11.7</v>
@@ -8640,7 +9042,7 @@
         <v>1.15</v>
       </c>
       <c r="F50" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G50">
         <v>679</v>
@@ -8649,12 +9051,12 @@
         <v>0.00403</v>
       </c>
       <c r="I50" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B51">
         <v>11</v>
@@ -8669,7 +9071,7 @@
         <v>0.96</v>
       </c>
       <c r="F51" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G51">
         <v>490</v>
@@ -8678,12 +9080,12 @@
         <v>0.00403</v>
       </c>
       <c r="I51" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B52">
         <v>14.6</v>
@@ -8698,7 +9100,7 @@
         <v>1.15</v>
       </c>
       <c r="F52" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G52">
         <v>679</v>
@@ -8707,7 +9109,7 @@
         <v>0.00403</v>
       </c>
       <c r="I52" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -8725,57 +9127,57 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B2">
         <v>0.06</v>
@@ -8802,10 +9204,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -8828,7 +9230,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B3">
         <v>0.06</v>
@@ -8855,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -8881,7 +9283,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B4">
         <v>0.04</v>
@@ -8908,10 +9310,10 @@
         <v>150</v>
       </c>
       <c r="J4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -8934,7 +9336,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B5">
         <v>0.05</v>
@@ -8961,10 +9363,10 @@
         <v>150</v>
       </c>
       <c r="J5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -8987,7 +9389,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B6">
         <v>0.07000000000000001</v>
@@ -9014,10 +9416,10 @@
         <v>150</v>
       </c>
       <c r="J6" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K6" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -9040,7 +9442,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B7">
         <v>0.04</v>
@@ -9067,10 +9469,10 @@
         <v>150</v>
       </c>
       <c r="J7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -9093,7 +9495,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B8">
         <v>0.05</v>
@@ -9120,10 +9522,10 @@
         <v>150</v>
       </c>
       <c r="J8" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -9146,7 +9548,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B9">
         <v>0.07000000000000001</v>
@@ -9173,10 +9575,10 @@
         <v>150</v>
       </c>
       <c r="J9" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K9" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -9199,7 +9601,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B10">
         <v>0.32</v>
@@ -9226,10 +9628,10 @@
         <v>150</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K10" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -9252,7 +9654,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B11">
         <v>0.3375</v>
@@ -9279,10 +9681,10 @@
         <v>150</v>
       </c>
       <c r="J11" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K11" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -9305,7 +9707,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B12">
         <v>0.2619</v>
@@ -9332,10 +9734,10 @@
         <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K12" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -9358,7 +9760,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B13">
         <v>0.24</v>
@@ -9385,10 +9787,10 @@
         <v>150</v>
       </c>
       <c r="J13" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K13" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -9411,7 +9813,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B14">
         <v>0.2375</v>
@@ -9438,10 +9840,10 @@
         <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -9464,7 +9866,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B15">
         <v>0.1873</v>
@@ -9491,10 +9893,10 @@
         <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -9530,75 +9932,75 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B2">
         <v>63</v>
@@ -9649,10 +10051,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="S2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9669,7 +10071,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B3">
         <v>63</v>
@@ -9720,10 +10122,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="S3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="T3">
         <v>0</v>

--- a/Sized_network_result_1.xlsx
+++ b/Sized_network_result_1.xlsx
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0335715005188572</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.0176</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="E14">
         <v>-0</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="E15">
         <v>-0</v>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="E23">
         <v>0</v>
